--- a/biology/Médecine/Propionate_de_fluticasone/Propionate_de_fluticasone.xlsx
+++ b/biology/Médecine/Propionate_de_fluticasone/Propionate_de_fluticasone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le propionate de fluticasone, est un glucocorticoïde utilisé dans le traitement de l'asthme et est vendu sous les marques Flovent et Flonase, entre autres[1].
+Le propionate de fluticasone, est un glucocorticoïde utilisé dans le traitement de l'asthme et est vendu sous les marques Flovent et Flonase, entre autres.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">c'est un glucocorticoïde qui permet la diminution de l'inflammation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">c'est un glucocorticoïde qui permet la diminution de l'inflammation.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament stéroïdien[1]. Lorsqu'il est inhalé, il est utilisé pour la gestion à long terme de l'asthme et de la BPCO[1]. Dans le nez, il est utilisé contre le rhume des foins et les polypes nasaux[2],[3]. Il peut également être utilisé pour les aphtes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament stéroïdien. Lorsqu'il est inhalé, il est utilisé pour la gestion à long terme de l'asthme et de la BPCO. Dans le nez, il est utilisé contre le rhume des foins et les polypes nasaux,. Il peut également être utilisé pour les aphtes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants en cas d'inhalation comprennent les infections des voies respiratoires supérieures, la sinusite, le muguet et la toux[1]. Les effets secondaires courants lorsqu’il est utilisé dans le nez comprennent des saignements de nez et des maux de gorge[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants en cas d'inhalation comprennent les infections des voies respiratoires supérieures, la sinusite, le muguet et la toux. Les effets secondaires courants lorsqu’il est utilisé dans le nez comprennent des saignements de nez et des maux de gorge.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le propionate de fluticasone a été breveté en 1980 et approuvé pour un usage médical en 1990[5]. Il est disponible sous forme de médicament générique[3]. Aux États-Unis, le coût de gros par pulvérisation est d'environ 0,33 dollars américains en 2018[6]. Au Royaume-Uni, cela coûte au NHS environ 0,13 livres sterling par pulvérisation à partir de 2019[3].
-En 2018, c'était le seizième médicament le plus prescrit aux États-Unis, avec plus de 34 millions d'ordonnances[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le propionate de fluticasone a été breveté en 1980 et approuvé pour un usage médical en 1990. Il est disponible sous forme de médicament générique. Aux États-Unis, le coût de gros par pulvérisation est d'environ 0,33 dollars américains en 2018. Au Royaume-Uni, cela coûte au NHS environ 0,13 livres sterling par pulvérisation à partir de 2019.
+En 2018, c'était le seizième médicament le plus prescrit aux États-Unis, avec plus de 34 millions d'ordonnances,.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>References</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b c d et e « Fluticasone Propionate Monograph for Professionals » [archive du 28 février 2019], Drugs.com, American Society of Health-System Pharmacists (consulté le 27 février 2019)
